--- a/download/bulkUserCredentialForSurveyExam.xlsx
+++ b/download/bulkUserCredentialForSurveyExam.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,85 +41,160 @@
     <t>Role</t>
   </si>
   <si>
-    <t>aWjVw476</t>
-  </si>
-  <si>
-    <t>naqxrbv53</t>
-  </si>
-  <si>
-    <t>Fp9k%7W!</t>
+    <t>AiBSB625</t>
+  </si>
+  <si>
+    <t>oadorsq35</t>
+  </si>
+  <si>
+    <t>G#dW&amp;59u</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>lKxGtpzI</t>
-  </si>
-  <si>
-    <t>SwCC</t>
+    <t>lyTmQMCJ</t>
+  </si>
+  <si>
+    <t>ElCl</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>siKnA573</t>
-  </si>
-  <si>
-    <t>vcwfkvn84</t>
-  </si>
-  <si>
-    <t>dQ$G34!r</t>
-  </si>
-  <si>
-    <t>PwuSjYOL</t>
-  </si>
-  <si>
-    <t>ExRu</t>
-  </si>
-  <si>
-    <t>rGmDr383</t>
-  </si>
-  <si>
-    <t>ylvjnnx92</t>
-  </si>
-  <si>
-    <t>QcY$t%42</t>
-  </si>
-  <si>
-    <t>pZXMBLyb</t>
-  </si>
-  <si>
-    <t>DSYY</t>
-  </si>
-  <si>
-    <t>kCWPy737</t>
-  </si>
-  <si>
-    <t>nmhjtsw79</t>
-  </si>
-  <si>
-    <t>G6S7$x#g</t>
-  </si>
-  <si>
-    <t>AoywdNKN</t>
-  </si>
-  <si>
-    <t>pkMZ</t>
-  </si>
-  <si>
-    <t>DmEIs397</t>
-  </si>
-  <si>
-    <t>aqayxnt34</t>
-  </si>
-  <si>
-    <t>bmC48G#!</t>
-  </si>
-  <si>
-    <t>WAzGTCMC</t>
-  </si>
-  <si>
-    <t>YOhF</t>
+    <t>YxMOb874</t>
+  </si>
+  <si>
+    <t>kbnmsoe30</t>
+  </si>
+  <si>
+    <t>P6R5y$&amp;j</t>
+  </si>
+  <si>
+    <t>FHJgfNiM</t>
+  </si>
+  <si>
+    <t>DAKs</t>
+  </si>
+  <si>
+    <t>BkGoR145</t>
+  </si>
+  <si>
+    <t>tkllhps84</t>
+  </si>
+  <si>
+    <t>ehYN27$!</t>
+  </si>
+  <si>
+    <t>fkMUCmJn</t>
+  </si>
+  <si>
+    <t>kRyb</t>
+  </si>
+  <si>
+    <t>hlQPh922</t>
+  </si>
+  <si>
+    <t>btynkqf90</t>
+  </si>
+  <si>
+    <t>e$5ZXd2#</t>
+  </si>
+  <si>
+    <t>xBEctSrd</t>
+  </si>
+  <si>
+    <t>QCwO</t>
+  </si>
+  <si>
+    <t>tevdy547</t>
+  </si>
+  <si>
+    <t>amqrdzv59</t>
+  </si>
+  <si>
+    <t>C#J3p$d9</t>
+  </si>
+  <si>
+    <t>cNbUttdj</t>
+  </si>
+  <si>
+    <t>EHFF</t>
+  </si>
+  <si>
+    <t>tnslp669</t>
+  </si>
+  <si>
+    <t>idsxwqn34</t>
+  </si>
+  <si>
+    <t>Vd27q#S%</t>
+  </si>
+  <si>
+    <t>ARuChMrM</t>
+  </si>
+  <si>
+    <t>muLx</t>
+  </si>
+  <si>
+    <t>RJZiG858</t>
+  </si>
+  <si>
+    <t>sjypihr37</t>
+  </si>
+  <si>
+    <t>t9Vg#2$M</t>
+  </si>
+  <si>
+    <t>BUZZdzXU</t>
+  </si>
+  <si>
+    <t>Kfoa</t>
+  </si>
+  <si>
+    <t>GLpZw478</t>
+  </si>
+  <si>
+    <t>ldisact78</t>
+  </si>
+  <si>
+    <t>D%U9yq5!</t>
+  </si>
+  <si>
+    <t>XDQRlXqh</t>
+  </si>
+  <si>
+    <t>qEsK</t>
+  </si>
+  <si>
+    <t>nWZqC980</t>
+  </si>
+  <si>
+    <t>kwzdruv19</t>
+  </si>
+  <si>
+    <t>Zs6%G#8h</t>
+  </si>
+  <si>
+    <t>DSGURPZe</t>
+  </si>
+  <si>
+    <t>DLOk</t>
+  </si>
+  <si>
+    <t>unBSd706</t>
+  </si>
+  <si>
+    <t>cynznfl48</t>
+  </si>
+  <si>
+    <t>sC$!Yt52</t>
+  </si>
+  <si>
+    <t>IqVVFVqP</t>
+  </si>
+  <si>
+    <t>Htry</t>
   </si>
 </sst>
 </file>
@@ -487,10 +562,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H6"/>
+      <selection activeCell="A1" sqref="A1:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -526,7 +601,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231004171</v>
+        <v>231006211</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -552,7 +627,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>231004170</v>
+        <v>231006210</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -578,7 +653,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>231004169</v>
+        <v>231006209</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -604,7 +679,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="2">
-        <v>231004168</v>
+        <v>231006208</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -630,7 +705,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="2">
-        <v>231004167</v>
+        <v>231006207</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
@@ -648,6 +723,136 @@
         <v>34</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2">
+        <v>231006206</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="2">
+        <v>231006205</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="2">
+        <v>231006204</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="2">
+        <v>231006203</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="2">
+        <v>231006202</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/download/bulkUserCredentialForSurveyExam.xlsx
+++ b/download/bulkUserCredentialForSurveyExam.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,160 +41,85 @@
     <t>Role</t>
   </si>
   <si>
-    <t>AiBSB625</t>
-  </si>
-  <si>
-    <t>oadorsq35</t>
-  </si>
-  <si>
-    <t>G#dW&amp;59u</t>
+    <t>aWjVw476</t>
+  </si>
+  <si>
+    <t>naqxrbv53</t>
+  </si>
+  <si>
+    <t>Fp9k%7W!</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>lyTmQMCJ</t>
-  </si>
-  <si>
-    <t>ElCl</t>
+    <t>lKxGtpzI</t>
+  </si>
+  <si>
+    <t>SwCC</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>YxMOb874</t>
-  </si>
-  <si>
-    <t>kbnmsoe30</t>
-  </si>
-  <si>
-    <t>P6R5y$&amp;j</t>
-  </si>
-  <si>
-    <t>FHJgfNiM</t>
-  </si>
-  <si>
-    <t>DAKs</t>
-  </si>
-  <si>
-    <t>BkGoR145</t>
-  </si>
-  <si>
-    <t>tkllhps84</t>
-  </si>
-  <si>
-    <t>ehYN27$!</t>
-  </si>
-  <si>
-    <t>fkMUCmJn</t>
-  </si>
-  <si>
-    <t>kRyb</t>
-  </si>
-  <si>
-    <t>hlQPh922</t>
-  </si>
-  <si>
-    <t>btynkqf90</t>
-  </si>
-  <si>
-    <t>e$5ZXd2#</t>
-  </si>
-  <si>
-    <t>xBEctSrd</t>
-  </si>
-  <si>
-    <t>QCwO</t>
-  </si>
-  <si>
-    <t>tevdy547</t>
-  </si>
-  <si>
-    <t>amqrdzv59</t>
-  </si>
-  <si>
-    <t>C#J3p$d9</t>
-  </si>
-  <si>
-    <t>cNbUttdj</t>
-  </si>
-  <si>
-    <t>EHFF</t>
-  </si>
-  <si>
-    <t>tnslp669</t>
-  </si>
-  <si>
-    <t>idsxwqn34</t>
-  </si>
-  <si>
-    <t>Vd27q#S%</t>
-  </si>
-  <si>
-    <t>ARuChMrM</t>
-  </si>
-  <si>
-    <t>muLx</t>
-  </si>
-  <si>
-    <t>RJZiG858</t>
-  </si>
-  <si>
-    <t>sjypihr37</t>
-  </si>
-  <si>
-    <t>t9Vg#2$M</t>
-  </si>
-  <si>
-    <t>BUZZdzXU</t>
-  </si>
-  <si>
-    <t>Kfoa</t>
-  </si>
-  <si>
-    <t>GLpZw478</t>
-  </si>
-  <si>
-    <t>ldisact78</t>
-  </si>
-  <si>
-    <t>D%U9yq5!</t>
-  </si>
-  <si>
-    <t>XDQRlXqh</t>
-  </si>
-  <si>
-    <t>qEsK</t>
-  </si>
-  <si>
-    <t>nWZqC980</t>
-  </si>
-  <si>
-    <t>kwzdruv19</t>
-  </si>
-  <si>
-    <t>Zs6%G#8h</t>
-  </si>
-  <si>
-    <t>DSGURPZe</t>
-  </si>
-  <si>
-    <t>DLOk</t>
-  </si>
-  <si>
-    <t>unBSd706</t>
-  </si>
-  <si>
-    <t>cynznfl48</t>
-  </si>
-  <si>
-    <t>sC$!Yt52</t>
-  </si>
-  <si>
-    <t>IqVVFVqP</t>
-  </si>
-  <si>
-    <t>Htry</t>
+    <t>siKnA573</t>
+  </si>
+  <si>
+    <t>vcwfkvn84</t>
+  </si>
+  <si>
+    <t>dQ$G34!r</t>
+  </si>
+  <si>
+    <t>PwuSjYOL</t>
+  </si>
+  <si>
+    <t>ExRu</t>
+  </si>
+  <si>
+    <t>rGmDr383</t>
+  </si>
+  <si>
+    <t>ylvjnnx92</t>
+  </si>
+  <si>
+    <t>QcY$t%42</t>
+  </si>
+  <si>
+    <t>pZXMBLyb</t>
+  </si>
+  <si>
+    <t>DSYY</t>
+  </si>
+  <si>
+    <t>kCWPy737</t>
+  </si>
+  <si>
+    <t>nmhjtsw79</t>
+  </si>
+  <si>
+    <t>G6S7$x#g</t>
+  </si>
+  <si>
+    <t>AoywdNKN</t>
+  </si>
+  <si>
+    <t>pkMZ</t>
+  </si>
+  <si>
+    <t>DmEIs397</t>
+  </si>
+  <si>
+    <t>aqayxnt34</t>
+  </si>
+  <si>
+    <t>bmC48G#!</t>
+  </si>
+  <si>
+    <t>WAzGTCMC</t>
+  </si>
+  <si>
+    <t>YOhF</t>
   </si>
 </sst>
 </file>
@@ -562,10 +487,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H11"/>
+      <selection activeCell="A1" sqref="A1:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -601,7 +526,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231006211</v>
+        <v>231004171</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -627,7 +552,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>231006210</v>
+        <v>231004170</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -653,7 +578,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>231006209</v>
+        <v>231004169</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -679,7 +604,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="2">
-        <v>231006208</v>
+        <v>231004168</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -705,7 +630,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="2">
-        <v>231006207</v>
+        <v>231004167</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
@@ -723,136 +648,6 @@
         <v>34</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="2">
-        <v>231006206</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="2">
-        <v>231006205</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="2">
-        <v>231006204</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="2">
-        <v>231006203</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="2">
-        <v>231006202</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/download/bulkUserCredentialForSurveyExam.xlsx
+++ b/download/bulkUserCredentialForSurveyExam.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,85 +41,220 @@
     <t>Role</t>
   </si>
   <si>
-    <t>aWjVw476</t>
-  </si>
-  <si>
-    <t>naqxrbv53</t>
-  </si>
-  <si>
-    <t>Fp9k%7W!</t>
+    <t>zPwcN749</t>
+  </si>
+  <si>
+    <t>vijfbhh31</t>
+  </si>
+  <si>
+    <t>b%U59&amp;Vn</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>lKxGtpzI</t>
-  </si>
-  <si>
-    <t>SwCC</t>
+    <t>UPokYapt</t>
+  </si>
+  <si>
+    <t>cQEB</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>siKnA573</t>
-  </si>
-  <si>
-    <t>vcwfkvn84</t>
-  </si>
-  <si>
-    <t>dQ$G34!r</t>
-  </si>
-  <si>
-    <t>PwuSjYOL</t>
-  </si>
-  <si>
-    <t>ExRu</t>
-  </si>
-  <si>
-    <t>rGmDr383</t>
-  </si>
-  <si>
-    <t>ylvjnnx92</t>
-  </si>
-  <si>
-    <t>QcY$t%42</t>
-  </si>
-  <si>
-    <t>pZXMBLyb</t>
-  </si>
-  <si>
-    <t>DSYY</t>
-  </si>
-  <si>
-    <t>kCWPy737</t>
-  </si>
-  <si>
-    <t>nmhjtsw79</t>
-  </si>
-  <si>
-    <t>G6S7$x#g</t>
-  </si>
-  <si>
-    <t>AoywdNKN</t>
-  </si>
-  <si>
-    <t>pkMZ</t>
-  </si>
-  <si>
-    <t>DmEIs397</t>
-  </si>
-  <si>
-    <t>aqayxnt34</t>
-  </si>
-  <si>
-    <t>bmC48G#!</t>
-  </si>
-  <si>
-    <t>WAzGTCMC</t>
-  </si>
-  <si>
-    <t>YOhF</t>
+    <t>Vvyfy878</t>
+  </si>
+  <si>
+    <t>rfjoisy15</t>
+  </si>
+  <si>
+    <t>jWXn!2$4</t>
+  </si>
+  <si>
+    <t>YVkHvubQ</t>
+  </si>
+  <si>
+    <t>UcTU</t>
+  </si>
+  <si>
+    <t>Kkxya411</t>
+  </si>
+  <si>
+    <t>yaplfjc64</t>
+  </si>
+  <si>
+    <t>uAq8G!&amp;2</t>
+  </si>
+  <si>
+    <t>OfNKdOUZ</t>
+  </si>
+  <si>
+    <t>AScy</t>
+  </si>
+  <si>
+    <t>AVMlN164</t>
+  </si>
+  <si>
+    <t>nhtposb38</t>
+  </si>
+  <si>
+    <t>Ek!9Sc&amp;3</t>
+  </si>
+  <si>
+    <t>qRyOQhGd</t>
+  </si>
+  <si>
+    <t>PzRA</t>
+  </si>
+  <si>
+    <t>AFllB443</t>
+  </si>
+  <si>
+    <t>idmzvwv78</t>
+  </si>
+  <si>
+    <t>s!#STv95</t>
+  </si>
+  <si>
+    <t>WjwhlqFG</t>
+  </si>
+  <si>
+    <t>MXJQ</t>
+  </si>
+  <si>
+    <t>DcSll801</t>
+  </si>
+  <si>
+    <t>ipizeal72</t>
+  </si>
+  <si>
+    <t>j2#f%7SH</t>
+  </si>
+  <si>
+    <t>MWSzyVKv</t>
+  </si>
+  <si>
+    <t>xwgM</t>
+  </si>
+  <si>
+    <t>EgwMY733</t>
+  </si>
+  <si>
+    <t>yegzisn76</t>
+  </si>
+  <si>
+    <t>r!2MTe4%</t>
+  </si>
+  <si>
+    <t>sFipNhgi</t>
+  </si>
+  <si>
+    <t>bjgS</t>
+  </si>
+  <si>
+    <t>wDQYG233</t>
+  </si>
+  <si>
+    <t>hxltnmv96</t>
+  </si>
+  <si>
+    <t>f4%k!8SD</t>
+  </si>
+  <si>
+    <t>QYWUTdHM</t>
+  </si>
+  <si>
+    <t>Amyz</t>
+  </si>
+  <si>
+    <t>WSVnC201</t>
+  </si>
+  <si>
+    <t>ugklxtv79</t>
+  </si>
+  <si>
+    <t>a#Y32$wG</t>
+  </si>
+  <si>
+    <t>zBwcqsUn</t>
+  </si>
+  <si>
+    <t>aDoa</t>
+  </si>
+  <si>
+    <t>FBuHn438</t>
+  </si>
+  <si>
+    <t>gazkbwb24</t>
+  </si>
+  <si>
+    <t>R$b!78kQ</t>
+  </si>
+  <si>
+    <t>AobRCYZq</t>
+  </si>
+  <si>
+    <t>tIoj</t>
+  </si>
+  <si>
+    <t>TjtFl994</t>
+  </si>
+  <si>
+    <t>xgfwpbo22</t>
+  </si>
+  <si>
+    <t>Xkj#$82C</t>
+  </si>
+  <si>
+    <t>kpVggFxG</t>
+  </si>
+  <si>
+    <t>EqnX</t>
+  </si>
+  <si>
+    <t>XppXw366</t>
+  </si>
+  <si>
+    <t>zcpbqhv45</t>
+  </si>
+  <si>
+    <t>f6B$!9dU</t>
+  </si>
+  <si>
+    <t>MtgJfvYg</t>
+  </si>
+  <si>
+    <t>sEAF</t>
+  </si>
+  <si>
+    <t>EKviY426</t>
+  </si>
+  <si>
+    <t>geizcpv77</t>
+  </si>
+  <si>
+    <t>Yw!4zC&amp;9</t>
+  </si>
+  <si>
+    <t>ovtcMnni</t>
+  </si>
+  <si>
+    <t>zOZo</t>
+  </si>
+  <si>
+    <t>pbrrN371</t>
+  </si>
+  <si>
+    <t>xsenwjw40</t>
+  </si>
+  <si>
+    <t>mHJ6!9$g</t>
+  </si>
+  <si>
+    <t>pawRgdjp</t>
+  </si>
+  <si>
+    <t>yltX</t>
   </si>
 </sst>
 </file>
@@ -487,10 +622,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H6"/>
+      <selection activeCell="A1" sqref="A1:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -526,7 +661,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231004171</v>
+        <v>231011189</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -552,7 +687,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>231004170</v>
+        <v>231011188</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -578,7 +713,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>231004169</v>
+        <v>231011187</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -604,7 +739,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="2">
-        <v>231004168</v>
+        <v>231011186</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -630,7 +765,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="2">
-        <v>231004167</v>
+        <v>231011185</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
@@ -648,6 +783,240 @@
         <v>34</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2">
+        <v>231011184</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="2">
+        <v>231011183</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="2">
+        <v>231011182</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="2">
+        <v>231011181</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="2">
+        <v>231011180</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="2">
+        <v>231011179</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="2">
+        <v>231011178</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="2">
+        <v>231011177</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="2">
+        <v>231011176</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/download/bulkUserCredentialForSurveyExam.xlsx
+++ b/download/bulkUserCredentialForSurveyExam.xlsx
@@ -41,220 +41,220 @@
     <t>Role</t>
   </si>
   <si>
-    <t>zPwcN749</t>
-  </si>
-  <si>
-    <t>vijfbhh31</t>
-  </si>
-  <si>
-    <t>b%U59&amp;Vn</t>
+    <t>KEsQQ150</t>
+  </si>
+  <si>
+    <t>zouzcrj59</t>
+  </si>
+  <si>
+    <t>AZ#p$2r7</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>UPokYapt</t>
-  </si>
-  <si>
-    <t>cQEB</t>
+    <t>sctXiARj</t>
+  </si>
+  <si>
+    <t>uvnu</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>Vvyfy878</t>
-  </si>
-  <si>
-    <t>rfjoisy15</t>
-  </si>
-  <si>
-    <t>jWXn!2$4</t>
-  </si>
-  <si>
-    <t>YVkHvubQ</t>
-  </si>
-  <si>
-    <t>UcTU</t>
-  </si>
-  <si>
-    <t>Kkxya411</t>
-  </si>
-  <si>
-    <t>yaplfjc64</t>
-  </si>
-  <si>
-    <t>uAq8G!&amp;2</t>
-  </si>
-  <si>
-    <t>OfNKdOUZ</t>
-  </si>
-  <si>
-    <t>AScy</t>
-  </si>
-  <si>
-    <t>AVMlN164</t>
-  </si>
-  <si>
-    <t>nhtposb38</t>
-  </si>
-  <si>
-    <t>Ek!9Sc&amp;3</t>
-  </si>
-  <si>
-    <t>qRyOQhGd</t>
-  </si>
-  <si>
-    <t>PzRA</t>
-  </si>
-  <si>
-    <t>AFllB443</t>
-  </si>
-  <si>
-    <t>idmzvwv78</t>
-  </si>
-  <si>
-    <t>s!#STv95</t>
-  </si>
-  <si>
-    <t>WjwhlqFG</t>
-  </si>
-  <si>
-    <t>MXJQ</t>
-  </si>
-  <si>
-    <t>DcSll801</t>
-  </si>
-  <si>
-    <t>ipizeal72</t>
-  </si>
-  <si>
-    <t>j2#f%7SH</t>
-  </si>
-  <si>
-    <t>MWSzyVKv</t>
-  </si>
-  <si>
-    <t>xwgM</t>
-  </si>
-  <si>
-    <t>EgwMY733</t>
-  </si>
-  <si>
-    <t>yegzisn76</t>
-  </si>
-  <si>
-    <t>r!2MTe4%</t>
-  </si>
-  <si>
-    <t>sFipNhgi</t>
-  </si>
-  <si>
-    <t>bjgS</t>
-  </si>
-  <si>
-    <t>wDQYG233</t>
-  </si>
-  <si>
-    <t>hxltnmv96</t>
-  </si>
-  <si>
-    <t>f4%k!8SD</t>
-  </si>
-  <si>
-    <t>QYWUTdHM</t>
-  </si>
-  <si>
-    <t>Amyz</t>
-  </si>
-  <si>
-    <t>WSVnC201</t>
-  </si>
-  <si>
-    <t>ugklxtv79</t>
-  </si>
-  <si>
-    <t>a#Y32$wG</t>
-  </si>
-  <si>
-    <t>zBwcqsUn</t>
-  </si>
-  <si>
-    <t>aDoa</t>
-  </si>
-  <si>
-    <t>FBuHn438</t>
-  </si>
-  <si>
-    <t>gazkbwb24</t>
-  </si>
-  <si>
-    <t>R$b!78kQ</t>
-  </si>
-  <si>
-    <t>AobRCYZq</t>
-  </si>
-  <si>
-    <t>tIoj</t>
-  </si>
-  <si>
-    <t>TjtFl994</t>
-  </si>
-  <si>
-    <t>xgfwpbo22</t>
-  </si>
-  <si>
-    <t>Xkj#$82C</t>
-  </si>
-  <si>
-    <t>kpVggFxG</t>
-  </si>
-  <si>
-    <t>EqnX</t>
-  </si>
-  <si>
-    <t>XppXw366</t>
-  </si>
-  <si>
-    <t>zcpbqhv45</t>
-  </si>
-  <si>
-    <t>f6B$!9dU</t>
-  </si>
-  <si>
-    <t>MtgJfvYg</t>
-  </si>
-  <si>
-    <t>sEAF</t>
-  </si>
-  <si>
-    <t>EKviY426</t>
-  </si>
-  <si>
-    <t>geizcpv77</t>
-  </si>
-  <si>
-    <t>Yw!4zC&amp;9</t>
-  </si>
-  <si>
-    <t>ovtcMnni</t>
-  </si>
-  <si>
-    <t>zOZo</t>
-  </si>
-  <si>
-    <t>pbrrN371</t>
-  </si>
-  <si>
-    <t>xsenwjw40</t>
-  </si>
-  <si>
-    <t>mHJ6!9$g</t>
-  </si>
-  <si>
-    <t>pawRgdjp</t>
-  </si>
-  <si>
-    <t>yltX</t>
+    <t>JgMgt863</t>
+  </si>
+  <si>
+    <t>uolunsd76</t>
+  </si>
+  <si>
+    <t>WrV8#%4b</t>
+  </si>
+  <si>
+    <t>fJQvOcrR</t>
+  </si>
+  <si>
+    <t>OMOT</t>
+  </si>
+  <si>
+    <t>vrGvq212</t>
+  </si>
+  <si>
+    <t>gcsvsqv20</t>
+  </si>
+  <si>
+    <t>S98H!xh&amp;</t>
+  </si>
+  <si>
+    <t>BnWFmmez</t>
+  </si>
+  <si>
+    <t>mcUh</t>
+  </si>
+  <si>
+    <t>uIzKV818</t>
+  </si>
+  <si>
+    <t>tqaxvul92</t>
+  </si>
+  <si>
+    <t>X6E!%m8n</t>
+  </si>
+  <si>
+    <t>gJofDxwm</t>
+  </si>
+  <si>
+    <t>wcDK</t>
+  </si>
+  <si>
+    <t>DsTQc634</t>
+  </si>
+  <si>
+    <t>lbygnmo24</t>
+  </si>
+  <si>
+    <t>t$%XG97x</t>
+  </si>
+  <si>
+    <t>MjtfvdFs</t>
+  </si>
+  <si>
+    <t>QNIz</t>
+  </si>
+  <si>
+    <t>ZkWVx405</t>
+  </si>
+  <si>
+    <t>egrtzvc51</t>
+  </si>
+  <si>
+    <t>ux#G!26F</t>
+  </si>
+  <si>
+    <t>Kighziev</t>
+  </si>
+  <si>
+    <t>pjfx</t>
+  </si>
+  <si>
+    <t>yglHs934</t>
+  </si>
+  <si>
+    <t>xihqopy62</t>
+  </si>
+  <si>
+    <t>H6n$A!4f</t>
+  </si>
+  <si>
+    <t>WCJqNpMp</t>
+  </si>
+  <si>
+    <t>LuOL</t>
+  </si>
+  <si>
+    <t>xdHHH982</t>
+  </si>
+  <si>
+    <t>cptyjlt63</t>
+  </si>
+  <si>
+    <t>P26!T#gv</t>
+  </si>
+  <si>
+    <t>CwFRsviz</t>
+  </si>
+  <si>
+    <t>wHFx</t>
+  </si>
+  <si>
+    <t>LpPKY107</t>
+  </si>
+  <si>
+    <t>wennkzu38</t>
+  </si>
+  <si>
+    <t>q6CVy%#3</t>
+  </si>
+  <si>
+    <t>OqWAaXkS</t>
+  </si>
+  <si>
+    <t>QacE</t>
+  </si>
+  <si>
+    <t>deVvo766</t>
+  </si>
+  <si>
+    <t>zdbvgfx20</t>
+  </si>
+  <si>
+    <t>q#7vXM$6</t>
+  </si>
+  <si>
+    <t>jSeINGcv</t>
+  </si>
+  <si>
+    <t>ZVgI</t>
+  </si>
+  <si>
+    <t>rvJaC610</t>
+  </si>
+  <si>
+    <t>cerleoe53</t>
+  </si>
+  <si>
+    <t>XV4hy$5#</t>
+  </si>
+  <si>
+    <t>lYSHxzlz</t>
+  </si>
+  <si>
+    <t>TERW</t>
+  </si>
+  <si>
+    <t>tMKFb811</t>
+  </si>
+  <si>
+    <t>rzqbkvx16</t>
+  </si>
+  <si>
+    <t>tN5!Ym7&amp;</t>
+  </si>
+  <si>
+    <t>FiPkRntl</t>
+  </si>
+  <si>
+    <t>vMda</t>
+  </si>
+  <si>
+    <t>jmyfI815</t>
+  </si>
+  <si>
+    <t>dkcvjrg64</t>
+  </si>
+  <si>
+    <t>g7bWV%!6</t>
+  </si>
+  <si>
+    <t>yQOHRmjK</t>
+  </si>
+  <si>
+    <t>mZMB</t>
+  </si>
+  <si>
+    <t>gOIzY792</t>
+  </si>
+  <si>
+    <t>ybznags33</t>
+  </si>
+  <si>
+    <t>nW36k!J&amp;</t>
+  </si>
+  <si>
+    <t>tdrWiRvw</t>
+  </si>
+  <si>
+    <t>AovN</t>
   </si>
 </sst>
 </file>
@@ -661,7 +661,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231011189</v>
+        <v>23102849</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -687,7 +687,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>231011188</v>
+        <v>23102848</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -713,7 +713,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>231011187</v>
+        <v>23102847</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -739,7 +739,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="2">
-        <v>231011186</v>
+        <v>23102846</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -765,7 +765,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="2">
-        <v>231011185</v>
+        <v>23102845</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
@@ -791,7 +791,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="2">
-        <v>231011184</v>
+        <v>23102844</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>36</v>
@@ -817,7 +817,7 @@
         <v>40</v>
       </c>
       <c r="B8" s="2">
-        <v>231011183</v>
+        <v>23102843</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>41</v>
@@ -843,7 +843,7 @@
         <v>45</v>
       </c>
       <c r="B9" s="2">
-        <v>231011182</v>
+        <v>23102842</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>46</v>
@@ -869,7 +869,7 @@
         <v>50</v>
       </c>
       <c r="B10" s="2">
-        <v>231011181</v>
+        <v>23102841</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>51</v>
@@ -895,7 +895,7 @@
         <v>55</v>
       </c>
       <c r="B11" s="2">
-        <v>231011180</v>
+        <v>23102840</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>56</v>
@@ -921,7 +921,7 @@
         <v>60</v>
       </c>
       <c r="B12" s="2">
-        <v>231011179</v>
+        <v>23102839</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>61</v>
@@ -947,7 +947,7 @@
         <v>65</v>
       </c>
       <c r="B13" s="2">
-        <v>231011178</v>
+        <v>23102838</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>66</v>
@@ -973,7 +973,7 @@
         <v>70</v>
       </c>
       <c r="B14" s="2">
-        <v>231011177</v>
+        <v>23102837</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>71</v>
@@ -999,7 +999,7 @@
         <v>75</v>
       </c>
       <c r="B15" s="2">
-        <v>231011176</v>
+        <v>23102836</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>76</v>

--- a/download/bulkUserCredentialForSurveyExam.xlsx
+++ b/download/bulkUserCredentialForSurveyExam.xlsx
@@ -41,220 +41,220 @@
     <t>Role</t>
   </si>
   <si>
-    <t>KEsQQ150</t>
-  </si>
-  <si>
-    <t>zouzcrj59</t>
-  </si>
-  <si>
-    <t>AZ#p$2r7</t>
+    <t>ktHIK344</t>
+  </si>
+  <si>
+    <t>mbjcekk23</t>
+  </si>
+  <si>
+    <t>T%rA#45d</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>sctXiARj</t>
-  </si>
-  <si>
-    <t>uvnu</t>
+    <t>JGXPVFKr</t>
+  </si>
+  <si>
+    <t>DjTJ</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>JgMgt863</t>
-  </si>
-  <si>
-    <t>uolunsd76</t>
-  </si>
-  <si>
-    <t>WrV8#%4b</t>
-  </si>
-  <si>
-    <t>fJQvOcrR</t>
-  </si>
-  <si>
-    <t>OMOT</t>
-  </si>
-  <si>
-    <t>vrGvq212</t>
-  </si>
-  <si>
-    <t>gcsvsqv20</t>
-  </si>
-  <si>
-    <t>S98H!xh&amp;</t>
-  </si>
-  <si>
-    <t>BnWFmmez</t>
-  </si>
-  <si>
-    <t>mcUh</t>
-  </si>
-  <si>
-    <t>uIzKV818</t>
-  </si>
-  <si>
-    <t>tqaxvul92</t>
-  </si>
-  <si>
-    <t>X6E!%m8n</t>
-  </si>
-  <si>
-    <t>gJofDxwm</t>
-  </si>
-  <si>
-    <t>wcDK</t>
-  </si>
-  <si>
-    <t>DsTQc634</t>
-  </si>
-  <si>
-    <t>lbygnmo24</t>
-  </si>
-  <si>
-    <t>t$%XG97x</t>
-  </si>
-  <si>
-    <t>MjtfvdFs</t>
-  </si>
-  <si>
-    <t>QNIz</t>
-  </si>
-  <si>
-    <t>ZkWVx405</t>
-  </si>
-  <si>
-    <t>egrtzvc51</t>
-  </si>
-  <si>
-    <t>ux#G!26F</t>
-  </si>
-  <si>
-    <t>Kighziev</t>
-  </si>
-  <si>
-    <t>pjfx</t>
-  </si>
-  <si>
-    <t>yglHs934</t>
-  </si>
-  <si>
-    <t>xihqopy62</t>
-  </si>
-  <si>
-    <t>H6n$A!4f</t>
-  </si>
-  <si>
-    <t>WCJqNpMp</t>
-  </si>
-  <si>
-    <t>LuOL</t>
-  </si>
-  <si>
-    <t>xdHHH982</t>
-  </si>
-  <si>
-    <t>cptyjlt63</t>
-  </si>
-  <si>
-    <t>P26!T#gv</t>
-  </si>
-  <si>
-    <t>CwFRsviz</t>
-  </si>
-  <si>
-    <t>wHFx</t>
-  </si>
-  <si>
-    <t>LpPKY107</t>
-  </si>
-  <si>
-    <t>wennkzu38</t>
-  </si>
-  <si>
-    <t>q6CVy%#3</t>
-  </si>
-  <si>
-    <t>OqWAaXkS</t>
-  </si>
-  <si>
-    <t>QacE</t>
-  </si>
-  <si>
-    <t>deVvo766</t>
-  </si>
-  <si>
-    <t>zdbvgfx20</t>
-  </si>
-  <si>
-    <t>q#7vXM$6</t>
-  </si>
-  <si>
-    <t>jSeINGcv</t>
-  </si>
-  <si>
-    <t>ZVgI</t>
-  </si>
-  <si>
-    <t>rvJaC610</t>
-  </si>
-  <si>
-    <t>cerleoe53</t>
-  </si>
-  <si>
-    <t>XV4hy$5#</t>
-  </si>
-  <si>
-    <t>lYSHxzlz</t>
-  </si>
-  <si>
-    <t>TERW</t>
-  </si>
-  <si>
-    <t>tMKFb811</t>
-  </si>
-  <si>
-    <t>rzqbkvx16</t>
-  </si>
-  <si>
-    <t>tN5!Ym7&amp;</t>
-  </si>
-  <si>
-    <t>FiPkRntl</t>
-  </si>
-  <si>
-    <t>vMda</t>
-  </si>
-  <si>
-    <t>jmyfI815</t>
-  </si>
-  <si>
-    <t>dkcvjrg64</t>
-  </si>
-  <si>
-    <t>g7bWV%!6</t>
-  </si>
-  <si>
-    <t>yQOHRmjK</t>
-  </si>
-  <si>
-    <t>mZMB</t>
-  </si>
-  <si>
-    <t>gOIzY792</t>
-  </si>
-  <si>
-    <t>ybznags33</t>
-  </si>
-  <si>
-    <t>nW36k!J&amp;</t>
-  </si>
-  <si>
-    <t>tdrWiRvw</t>
-  </si>
-  <si>
-    <t>AovN</t>
+    <t>SQHYx858</t>
+  </si>
+  <si>
+    <t>welkjhn58</t>
+  </si>
+  <si>
+    <t>U5h%D$k2</t>
+  </si>
+  <si>
+    <t>EmNmkpZU</t>
+  </si>
+  <si>
+    <t>yZSB</t>
+  </si>
+  <si>
+    <t>YHNhv302</t>
+  </si>
+  <si>
+    <t>oezfisi13</t>
+  </si>
+  <si>
+    <t>WQ62#u&amp;j</t>
+  </si>
+  <si>
+    <t>GcMoaubA</t>
+  </si>
+  <si>
+    <t>jvzK</t>
+  </si>
+  <si>
+    <t>bELQv496</t>
+  </si>
+  <si>
+    <t>wxfvjml28</t>
+  </si>
+  <si>
+    <t>w&amp;8G4yR%</t>
+  </si>
+  <si>
+    <t>ePQinYrz</t>
+  </si>
+  <si>
+    <t>Wnvo</t>
+  </si>
+  <si>
+    <t>gqUYb661</t>
+  </si>
+  <si>
+    <t>lxbqbul57</t>
+  </si>
+  <si>
+    <t>A5#$Wv6h</t>
+  </si>
+  <si>
+    <t>DlXxbdiw</t>
+  </si>
+  <si>
+    <t>ocvZ</t>
+  </si>
+  <si>
+    <t>giMXD898</t>
+  </si>
+  <si>
+    <t>kbzjzrr65</t>
+  </si>
+  <si>
+    <t>x&amp;5eH!3B</t>
+  </si>
+  <si>
+    <t>ChUVPJGA</t>
+  </si>
+  <si>
+    <t>LXmJ</t>
+  </si>
+  <si>
+    <t>LxfXa374</t>
+  </si>
+  <si>
+    <t>jcguvpl47</t>
+  </si>
+  <si>
+    <t>ZP%5!q4s</t>
+  </si>
+  <si>
+    <t>oDRpqPKu</t>
+  </si>
+  <si>
+    <t>JGiX</t>
+  </si>
+  <si>
+    <t>cniQj945</t>
+  </si>
+  <si>
+    <t>yqbwwyl98</t>
+  </si>
+  <si>
+    <t>vJq8#K2%</t>
+  </si>
+  <si>
+    <t>DRdaRSrl</t>
+  </si>
+  <si>
+    <t>MBJo</t>
+  </si>
+  <si>
+    <t>ZSLCT519</t>
+  </si>
+  <si>
+    <t>muojxoy68</t>
+  </si>
+  <si>
+    <t>Ej$7&amp;pA5</t>
+  </si>
+  <si>
+    <t>LHGsxFEd</t>
+  </si>
+  <si>
+    <t>TzOx</t>
+  </si>
+  <si>
+    <t>zMgTf231</t>
+  </si>
+  <si>
+    <t>jhfbvyd52</t>
+  </si>
+  <si>
+    <t>dV%&amp;bA49</t>
+  </si>
+  <si>
+    <t>PcxCjfLZ</t>
+  </si>
+  <si>
+    <t>vgbS</t>
+  </si>
+  <si>
+    <t>ZTItV653</t>
+  </si>
+  <si>
+    <t>nwstiba64</t>
+  </si>
+  <si>
+    <t>SY5&amp;m9!a</t>
+  </si>
+  <si>
+    <t>NTVmTljh</t>
+  </si>
+  <si>
+    <t>vlei</t>
+  </si>
+  <si>
+    <t>XnJXG624</t>
+  </si>
+  <si>
+    <t>lkgifoz18</t>
+  </si>
+  <si>
+    <t>K3$#2cXd</t>
+  </si>
+  <si>
+    <t>DuYniwes</t>
+  </si>
+  <si>
+    <t>LYty</t>
+  </si>
+  <si>
+    <t>WrHkh461</t>
+  </si>
+  <si>
+    <t>tknpvxn89</t>
+  </si>
+  <si>
+    <t>VZ$2g9s%</t>
+  </si>
+  <si>
+    <t>rCCvALWJ</t>
+  </si>
+  <si>
+    <t>XHTL</t>
+  </si>
+  <si>
+    <t>RunVP388</t>
+  </si>
+  <si>
+    <t>bwlfbth62</t>
+  </si>
+  <si>
+    <t>PWf&amp;6s7%</t>
+  </si>
+  <si>
+    <t>YboUEKNX</t>
+  </si>
+  <si>
+    <t>yKvy</t>
   </si>
 </sst>
 </file>
@@ -661,7 +661,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>23102849</v>
+        <v>231102239</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -687,7 +687,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>23102848</v>
+        <v>231102238</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -713,7 +713,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>23102847</v>
+        <v>231102237</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -739,7 +739,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="2">
-        <v>23102846</v>
+        <v>231102236</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -765,7 +765,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="2">
-        <v>23102845</v>
+        <v>231102235</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
@@ -791,7 +791,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="2">
-        <v>23102844</v>
+        <v>231102234</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>36</v>
@@ -817,7 +817,7 @@
         <v>40</v>
       </c>
       <c r="B8" s="2">
-        <v>23102843</v>
+        <v>231102233</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>41</v>
@@ -843,7 +843,7 @@
         <v>45</v>
       </c>
       <c r="B9" s="2">
-        <v>23102842</v>
+        <v>231102232</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>46</v>
@@ -869,7 +869,7 @@
         <v>50</v>
       </c>
       <c r="B10" s="2">
-        <v>23102841</v>
+        <v>231102231</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>51</v>
@@ -895,7 +895,7 @@
         <v>55</v>
       </c>
       <c r="B11" s="2">
-        <v>23102840</v>
+        <v>231102230</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>56</v>
@@ -921,7 +921,7 @@
         <v>60</v>
       </c>
       <c r="B12" s="2">
-        <v>23102839</v>
+        <v>231102229</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>61</v>
@@ -947,7 +947,7 @@
         <v>65</v>
       </c>
       <c r="B13" s="2">
-        <v>23102838</v>
+        <v>231102228</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>66</v>
@@ -973,7 +973,7 @@
         <v>70</v>
       </c>
       <c r="B14" s="2">
-        <v>23102837</v>
+        <v>231102227</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>71</v>
@@ -999,7 +999,7 @@
         <v>75</v>
       </c>
       <c r="B15" s="2">
-        <v>23102836</v>
+        <v>231102226</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>76</v>

--- a/download/bulkUserCredentialForSurveyExam.xlsx
+++ b/download/bulkUserCredentialForSurveyExam.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,220 +41,157 @@
     <t>Role</t>
   </si>
   <si>
-    <t>ktHIK344</t>
-  </si>
-  <si>
-    <t>mbjcekk23</t>
-  </si>
-  <si>
-    <t>T%rA#45d</t>
+    <t>CIO12048</t>
+  </si>
+  <si>
+    <t>candidatepfm12048</t>
+  </si>
+  <si>
+    <t>Elumina@170</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>JGXPVFKr</t>
-  </si>
-  <si>
-    <t>DjTJ</t>
-  </si>
-  <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>SQHYx858</t>
-  </si>
-  <si>
-    <t>welkjhn58</t>
-  </si>
-  <si>
-    <t>U5h%D$k2</t>
-  </si>
-  <si>
-    <t>EmNmkpZU</t>
-  </si>
-  <si>
-    <t>yZSB</t>
-  </si>
-  <si>
-    <t>YHNhv302</t>
-  </si>
-  <si>
-    <t>oezfisi13</t>
-  </si>
-  <si>
-    <t>WQ62#u&amp;j</t>
-  </si>
-  <si>
-    <t>GcMoaubA</t>
-  </si>
-  <si>
-    <t>jvzK</t>
-  </si>
-  <si>
-    <t>bELQv496</t>
-  </si>
-  <si>
-    <t>wxfvjml28</t>
-  </si>
-  <si>
-    <t>w&amp;8G4yR%</t>
-  </si>
-  <si>
-    <t>ePQinYrz</t>
-  </si>
-  <si>
-    <t>Wnvo</t>
-  </si>
-  <si>
-    <t>gqUYb661</t>
-  </si>
-  <si>
-    <t>lxbqbul57</t>
-  </si>
-  <si>
-    <t>A5#$Wv6h</t>
-  </si>
-  <si>
-    <t>DlXxbdiw</t>
-  </si>
-  <si>
-    <t>ocvZ</t>
-  </si>
-  <si>
-    <t>giMXD898</t>
-  </si>
-  <si>
-    <t>kbzjzrr65</t>
-  </si>
-  <si>
-    <t>x&amp;5eH!3B</t>
-  </si>
-  <si>
-    <t>ChUVPJGA</t>
-  </si>
-  <si>
-    <t>LXmJ</t>
-  </si>
-  <si>
-    <t>LxfXa374</t>
-  </si>
-  <si>
-    <t>jcguvpl47</t>
-  </si>
-  <si>
-    <t>ZP%5!q4s</t>
-  </si>
-  <si>
-    <t>oDRpqPKu</t>
-  </si>
-  <si>
-    <t>JGiX</t>
-  </si>
-  <si>
-    <t>cniQj945</t>
-  </si>
-  <si>
-    <t>yqbwwyl98</t>
-  </si>
-  <si>
-    <t>vJq8#K2%</t>
-  </si>
-  <si>
-    <t>DRdaRSrl</t>
-  </si>
-  <si>
-    <t>MBJo</t>
-  </si>
-  <si>
-    <t>ZSLCT519</t>
-  </si>
-  <si>
-    <t>muojxoy68</t>
-  </si>
-  <si>
-    <t>Ej$7&amp;pA5</t>
-  </si>
-  <si>
-    <t>LHGsxFEd</t>
-  </si>
-  <si>
-    <t>TzOx</t>
-  </si>
-  <si>
-    <t>zMgTf231</t>
-  </si>
-  <si>
-    <t>jhfbvyd52</t>
-  </si>
-  <si>
-    <t>dV%&amp;bA49</t>
-  </si>
-  <si>
-    <t>PcxCjfLZ</t>
-  </si>
-  <si>
-    <t>vgbS</t>
-  </si>
-  <si>
-    <t>ZTItV653</t>
-  </si>
-  <si>
-    <t>nwstiba64</t>
-  </si>
-  <si>
-    <t>SY5&amp;m9!a</t>
-  </si>
-  <si>
-    <t>NTVmTljh</t>
-  </si>
-  <si>
-    <t>vlei</t>
-  </si>
-  <si>
-    <t>XnJXG624</t>
-  </si>
-  <si>
-    <t>lkgifoz18</t>
-  </si>
-  <si>
-    <t>K3$#2cXd</t>
-  </si>
-  <si>
-    <t>DuYniwes</t>
-  </si>
-  <si>
-    <t>LYty</t>
-  </si>
-  <si>
-    <t>WrHkh461</t>
-  </si>
-  <si>
-    <t>tknpvxn89</t>
-  </si>
-  <si>
-    <t>VZ$2g9s%</t>
-  </si>
-  <si>
-    <t>rCCvALWJ</t>
-  </si>
-  <si>
-    <t>XHTL</t>
-  </si>
-  <si>
-    <t>RunVP388</t>
-  </si>
-  <si>
-    <t>bwlfbth62</t>
-  </si>
-  <si>
-    <t>PWf&amp;6s7%</t>
-  </si>
-  <si>
-    <t>YboUEKNX</t>
-  </si>
-  <si>
-    <t>yKvy</t>
+    <t>PFTMM</t>
+  </si>
+  <si>
+    <t>CIO12047</t>
+  </si>
+  <si>
+    <t>candidatepfm12047</t>
+  </si>
+  <si>
+    <t>Elumina@169</t>
+  </si>
+  <si>
+    <t>CIO12046</t>
+  </si>
+  <si>
+    <t>candidatepfm12046</t>
+  </si>
+  <si>
+    <t>Elumina@168</t>
+  </si>
+  <si>
+    <t>CIO12045</t>
+  </si>
+  <si>
+    <t>candidatepfm12045</t>
+  </si>
+  <si>
+    <t>Elumina@167</t>
+  </si>
+  <si>
+    <t>CIO12044</t>
+  </si>
+  <si>
+    <t>candidatepfm12044</t>
+  </si>
+  <si>
+    <t>Elumina@166</t>
+  </si>
+  <si>
+    <t>CIO12043</t>
+  </si>
+  <si>
+    <t>candidatepfm12043</t>
+  </si>
+  <si>
+    <t>Elumina@165</t>
+  </si>
+  <si>
+    <t>CIO12042</t>
+  </si>
+  <si>
+    <t>candidatepfm12042</t>
+  </si>
+  <si>
+    <t>Elumina@164</t>
+  </si>
+  <si>
+    <t>CIO12041</t>
+  </si>
+  <si>
+    <t>candidatepfm12041</t>
+  </si>
+  <si>
+    <t>Elumina@163</t>
+  </si>
+  <si>
+    <t>CIO12040</t>
+  </si>
+  <si>
+    <t>candidatepfm12040</t>
+  </si>
+  <si>
+    <t>Elumina@162</t>
+  </si>
+  <si>
+    <t>CIO12039</t>
+  </si>
+  <si>
+    <t>candidatepfm12039</t>
+  </si>
+  <si>
+    <t>Elumina@161</t>
+  </si>
+  <si>
+    <t>CIO12038</t>
+  </si>
+  <si>
+    <t>candidatepfm12038</t>
+  </si>
+  <si>
+    <t>Elumina@160</t>
+  </si>
+  <si>
+    <t>CIO12037</t>
+  </si>
+  <si>
+    <t>candidatepfm12037</t>
+  </si>
+  <si>
+    <t>Elumina@159</t>
+  </si>
+  <si>
+    <t>CIO12036</t>
+  </si>
+  <si>
+    <t>candidatepfm12036</t>
+  </si>
+  <si>
+    <t>Elumina@158</t>
+  </si>
+  <si>
+    <t>CIO12035</t>
+  </si>
+  <si>
+    <t>candidatepfm12035</t>
+  </si>
+  <si>
+    <t>Elumina@157</t>
+  </si>
+  <si>
+    <t>CIO12034</t>
+  </si>
+  <si>
+    <t>candidatepfm12034</t>
+  </si>
+  <si>
+    <t>Elumina@156</t>
+  </si>
+  <si>
+    <t>CIO12033</t>
+  </si>
+  <si>
+    <t>candidatepfm12033</t>
+  </si>
+  <si>
+    <t>Elumina@155</t>
   </si>
 </sst>
 </file>
@@ -622,10 +559,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H15"/>
+      <selection activeCell="A1" sqref="A1:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -661,7 +598,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231102239</v>
+        <v>20123192</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -679,345 +616,397 @@
         <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2">
+        <v>20123191</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2">
-        <v>231102238</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2">
-        <v>231102237</v>
+        <v>20123190</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2">
-        <v>231102236</v>
+        <v>20123189</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2">
-        <v>231102235</v>
+        <v>20123188</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2">
-        <v>231102234</v>
+        <v>20123187</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2">
-        <v>231102233</v>
+        <v>20123186</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2">
-        <v>231102232</v>
+        <v>20123185</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2">
-        <v>231102231</v>
+        <v>20123184</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2">
-        <v>231102230</v>
+        <v>20123183</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B12" s="2">
-        <v>231102229</v>
+        <v>20123182</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B13" s="2">
-        <v>231102228</v>
+        <v>20123181</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2">
-        <v>231102227</v>
+        <v>20123180</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B15" s="2">
-        <v>231102226</v>
+        <v>20123179</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="2">
+        <v>20123178</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="2">
+        <v>20123177</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
